--- a/怪物模板和AI.xlsx
+++ b/怪物模板和AI.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Project_game\design_document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352243E3-9A95-4C1C-88A7-2162DCC0B4DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6425CE89-991F-44D8-AABF-D4B477E8C30C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="初始怪物" sheetId="1" r:id="rId1"/>
+    <sheet name="图一 新手怪物" sheetId="1" r:id="rId1"/>
+    <sheet name="图一 普通怪物" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="182">
   <si>
     <t>地图一场景：森林；怪物类型：野兽、植物、人型生物</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -343,38 +344,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>自身获得3纯净护盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>使生命值最低的</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>队员</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>获得6纯净护盾</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>【保护】</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -384,10 +353,6 @@
   </si>
   <si>
     <t>展示机制-护盾-纯净护盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一、普通小怪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -431,10 +396,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>生命值：25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>眩晕抗性：300</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -499,10 +460,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>【真丝分裂】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>木属性：30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -519,10 +476,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>随机召唤一个蘑菇怪（红）或（蓝）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>展示机制-束缚、脆弱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -547,14 +500,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>生命值：86</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.首次行动必定使用【真丝分裂】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2.场上有其它友方单位存活时，第二次行动使用【菌雾】，否则使用【菌丝攻击】</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -581,19 +526,291 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>【超级真丝分裂】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤一个蘑菇怪（红）和一个蘑菇怪（蓝）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.生命值低于50%时，下次行动时必定使用【超级真丝分裂】，这个效果仅触发1次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3.之后的回合65%使用【菌丝攻击】，35%使用【菌雾】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【红色真丝分裂】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【蓝色真丝分裂】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤一个蘑菇怪（红）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤一个蘑菇怪（蓝）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.首次行动必定使用【红色真丝分裂】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命值：66</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命值：18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身获得4纯净护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>使生命值最低的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>队员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>获得7纯净护盾</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.生命值低于50%时，下次行动时必定使用【蓝色真丝分裂】，这个效果仅触发1次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定位：起教学作用的同时，还会考验相关能力，否则战损较大的敌人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷刺猬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>展示机制-麻痹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度：9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度：7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成（1智力）雷元素伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷属性：20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【刺猬小队号角】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有队员获得+1智力和+1力量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续至战斗结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火刺猬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>展示机制-灼烧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以100%基础概率施加1回合麻痹效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成（1智力）火元素伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【带电尖刺】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.50%使用【带电尖刺】，50%使用【刺猬小队号角】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.50%使用【灼热尖刺】，50%使用【刺猬小队号角】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个体属性波动、生命值波动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认上下限，在其中随机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【灼热尖刺】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以100%基础概率施加1层灼烧效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火属性：20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刺猬巫师（水）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>展示机制-潮湿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水属性：20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【召唤浪潮】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.如果有处于缠绕或束缚状态的敌人，必定使用【灼热尖刺】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标随机，优先选取潮湿或冻结的目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.如果有处于潮湿或冻结状态的敌人，必定使用【带电尖刺】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标随机，优先选取缠绕或束缚的目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成（1智力）水元素伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通常和电刺猬一队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以100%基础概率施加2回合潮湿效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【刺猬仪式】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身获得+2智力和+10水属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.50%使用【召唤浪潮】，50%使用【刺猬仪式】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.首次行动必定使用【刺猬仪式】，第二次行动必定使用【召唤浪潮】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刺猬巫师（木）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通常和火刺猬一队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【藤蔓缠绕】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.首次行动必定使用【刺猬仪式】，第二次行动必定使用【藤蔓缠绕】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.50%使用【藤蔓缠绕】，50%使用【刺猬仪式】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身获得+2智力和+10木属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以100%基础概率施加2回合缠绕效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标随机，优先选取不处于缠绕或束缚状态的目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木属性：20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命值：21-25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命值：15-19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刺猬士兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命值：16-22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【铁甲】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身获得8物理护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.首次行动必定使用【铁甲】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.有护甲时使用【撞击】，否则使用【铁甲】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充当前排角色，站在刺猬小队的第一个</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -688,15 +905,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>56827</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>9180</xdr:rowOff>
+      <xdr:colOff>28252</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>228255</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -719,7 +936,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="904875" y="1133475"/>
+          <a:off x="876300" y="1352550"/>
           <a:ext cx="2580952" cy="2761905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -996,6 +1213,231 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>199786</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{486AF6C7-FB46-103C-C1D4-71F55A3CE0C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="828676" y="685801"/>
+          <a:ext cx="2800110" cy="2847974"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>219577</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5EE2338-4A7A-2FE7-71B8-CD22A55A2976}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="800101" y="4105777"/>
+          <a:ext cx="2800350" cy="3095124"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>312689</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4C7A9A5-D09B-2EFC-9030-B9597F8AB10C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="781050" y="7791450"/>
+          <a:ext cx="2960639" cy="2990850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>140056</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9439F93F-BAAE-3EF9-3DBA-AFA010160F8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="781050" y="11268076"/>
+          <a:ext cx="2933700" cy="3045180"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>226809</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{880D6716-B61D-7BA1-6517-678A3EF44632}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="866775" y="14744700"/>
+          <a:ext cx="2828925" cy="3312909"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1261,8 +1703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:Q106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="M102" sqref="M102"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="M77" sqref="M77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1280,20 +1722,23 @@
         <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
@@ -1356,7 +1801,7 @@
         <v>57</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
@@ -1540,7 +1985,7 @@
         <v>42</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="7:16" x14ac:dyDescent="0.25">
@@ -1554,7 +1999,7 @@
         <v>17</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="7:16" x14ac:dyDescent="0.25">
@@ -1562,7 +2007,7 @@
         <v>46</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41" spans="7:16" x14ac:dyDescent="0.25">
@@ -1769,7 +2214,7 @@
         <v>71</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="P67" s="1" t="s">
         <v>76</v>
@@ -1783,7 +2228,7 @@
         <v>48</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="P68" s="1" t="s">
         <v>77</v>
@@ -1794,7 +2239,7 @@
         <v>74</v>
       </c>
       <c r="P69" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="7:16" x14ac:dyDescent="0.25">
@@ -1816,7 +2261,7 @@
         <v>73</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
     </row>
     <row r="72" spans="7:16" x14ac:dyDescent="0.25">
@@ -1847,13 +2292,13 @@
     </row>
     <row r="75" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G75" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K75" s="3"/>
     </row>
     <row r="78" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G78" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79" spans="7:16" x14ac:dyDescent="0.25">
@@ -1872,40 +2317,40 @@
     </row>
     <row r="81" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G81" s="1" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="82" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G82" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="83" spans="7:16" x14ac:dyDescent="0.25">
       <c r="K83" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="84" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G84" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="85" spans="7:16" x14ac:dyDescent="0.25">
@@ -1913,7 +2358,7 @@
         <v>7</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86" spans="7:16" x14ac:dyDescent="0.25">
@@ -1921,7 +2366,7 @@
         <v>8</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="P86" s="2"/>
     </row>
@@ -1930,18 +2375,18 @@
         <v>5</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="89" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G89" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K89" s="3"/>
     </row>
     <row r="93" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G93" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="94" spans="7:16" x14ac:dyDescent="0.25">
@@ -1962,16 +2407,16 @@
     </row>
     <row r="96" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G96" s="1" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="P96" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="97" spans="7:17" x14ac:dyDescent="0.25">
@@ -1982,32 +2427,32 @@
         <v>4</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="P97" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="98" spans="7:17" x14ac:dyDescent="0.25">
       <c r="K98" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="P98" s="1" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="99" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G99" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="I99" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="Q99" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="100" spans="7:17" x14ac:dyDescent="0.25">
@@ -2018,7 +2463,7 @@
         <v>10</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="P100" s="1" t="s">
         <v>126</v>
@@ -2032,7 +2477,7 @@
         <v>11</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="P101" s="2"/>
     </row>
@@ -2044,7 +2489,7 @@
         <v>12</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="103" spans="7:17" x14ac:dyDescent="0.25">
@@ -2055,29 +2500,612 @@
         <v>29</v>
       </c>
       <c r="M103" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="104" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G104" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="K104" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="105" spans="7:17" x14ac:dyDescent="0.25">
       <c r="K105" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="106" spans="7:17" x14ac:dyDescent="0.25">
       <c r="K106" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="L106" s="1" t="s">
         <v>56</v>
       </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97FD3490-A829-4DFF-B484-F45B8606D9B9}">
+  <dimension ref="B2:P77"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="G4" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="G5" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="G6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="G7" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="G8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="K9" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="G10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="G11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="G12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="G13" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="G15" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="18" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G19" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G20" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G22" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="K24" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G27" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="P27" s="2"/>
+    </row>
+    <row r="28" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G30" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K30" s="3"/>
+    </row>
+    <row r="35" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G35" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="36" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G36" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G38" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="39" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="40" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="K40" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G41" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="42" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G42" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="43" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="P43" s="2"/>
+    </row>
+    <row r="44" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="46" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G46" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K46" s="3"/>
+    </row>
+    <row r="51" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G51" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="52" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G52" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G53" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P53" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G54" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="55" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G55" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="56" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="K56" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="57" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G57" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="58" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="59" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="P59" s="2"/>
+    </row>
+    <row r="60" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G60" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="62" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G62" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K62" s="3"/>
+    </row>
+    <row r="66" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G66" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="67" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G67" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="68" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G68" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P68" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G69" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="P69" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="70" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G70" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="P70" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="71" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="K71" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G72" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G73" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="74" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G74" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P74" s="2"/>
+    </row>
+    <row r="75" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G75" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G77" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="K77" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
